--- a/Practice Sessions/Session 1/Data/Figures.xlsx
+++ b/Practice Sessions/Session 1/Data/Figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\Dropbox\CRED_Thanh\Training 3\Session 1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onanongchinskul/Dropbox/DGE-CRED-master/DGE-CRED-master/Practice Sessions/Session 1 revised/Session 1 final/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B0A01E-2521-45C3-8056-593FAE6A71AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C4DC8F-853D-9542-AE1C-22A9A695059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25260" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="39" r:id="rId1"/>
@@ -91,14 +91,14 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>Add Name of the Excel file with results</t>
+    <t>ResultsScenarios3Sectorsand1Regions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -116,14 +116,21 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,24 +188,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="3" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,7 +905,7 @@
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
@@ -1069,13 +1081,15 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="9"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:ln w="50800">
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1264,7 +1278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1260742040"/>
@@ -1323,7 +1337,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1260739416"/>
@@ -1365,7 +1379,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1374,9 +1388,16 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1388,7 +1409,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1437,7 +1458,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1641,22 +1662,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1826,6 +1848,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1894,19 +1927,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1943,16 +1977,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>455322</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142314</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127580</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>193523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>183931</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>110359</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>388769</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161568</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2287,16 +2321,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="124" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -2349,8 +2383,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="9"/>
+    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2450,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="6"/>
+      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -2424,8 +2458,8 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>2014</v>
       </c>
@@ -2469,11 +2503,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M3" s="11" t="e">
+      <c r="M3" s="2" t="e">
         <f ca="1">Q3*S3/O3</f>
         <v>#REF!</v>
       </c>
-      <c r="N3" s="11" t="e">
+      <c r="N3" s="2" t="e">
         <f ca="1">R3*T3/P3</f>
         <v>#REF!</v>
       </c>
@@ -2517,8 +2551,8 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2564,11 +2598,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="11" t="e">
+      <c r="M4" s="2" t="e">
         <f t="shared" ref="M4:M21" ca="1" si="3">Q4*S4/O4</f>
         <v>#REF!</v>
       </c>
-      <c r="N4" s="11" t="e">
+      <c r="N4" s="2" t="e">
         <f t="shared" ref="N4:N21" ca="1" si="4">R4*T4/P4</f>
         <v>#REF!</v>
       </c>
@@ -2612,7 +2646,7 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="4">
         <v>2020</v>
@@ -2657,11 +2691,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M5" s="11" t="e">
+      <c r="M5" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="11" t="e">
+      <c r="N5" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -2705,7 +2739,7 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="4">
         <v>2025</v>
@@ -2750,11 +2784,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="11" t="e">
+      <c r="M6" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N6" s="11" t="e">
+      <c r="N6" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -2798,7 +2832,7 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="4">
         <v>2030</v>
@@ -2843,11 +2877,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M7" s="11" t="e">
+      <c r="M7" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N7" s="11" t="e">
+      <c r="N7" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -2891,7 +2925,7 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="4">
         <v>2035</v>
@@ -2936,11 +2970,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M8" s="11" t="e">
+      <c r="M8" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N8" s="11" t="e">
+      <c r="N8" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -2984,7 +3018,7 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4">
         <v>2040</v>
@@ -3029,11 +3063,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M9" s="11" t="e">
+      <c r="M9" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N9" s="11" t="e">
+      <c r="N9" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3077,7 +3111,7 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="4">
         <v>2045</v>
@@ -3122,11 +3156,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M10" s="11" t="e">
+      <c r="M10" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N10" s="11" t="e">
+      <c r="N10" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3170,7 +3204,7 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4">
         <v>2050</v>
@@ -3215,11 +3249,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M11" s="11" t="e">
+      <c r="M11" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N11" s="11" t="e">
+      <c r="N11" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3263,7 +3297,7 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4">
         <v>2055</v>
@@ -3308,11 +3342,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M12" s="11" t="e">
+      <c r="M12" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N12" s="11" t="e">
+      <c r="N12" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3356,7 +3390,7 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4">
         <v>2060</v>
@@ -3401,11 +3435,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M13" s="11" t="e">
+      <c r="M13" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N13" s="11" t="e">
+      <c r="N13" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3449,7 +3483,7 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4">
         <v>2065</v>
@@ -3494,11 +3528,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M14" s="11" t="e">
+      <c r="M14" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N14" s="11" t="e">
+      <c r="N14" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3542,7 +3576,7 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4">
         <v>2070</v>
@@ -3587,11 +3621,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="11" t="e">
+      <c r="M15" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N15" s="11" t="e">
+      <c r="N15" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3635,7 +3669,7 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4">
         <v>2075</v>
@@ -3680,11 +3714,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M16" s="11" t="e">
+      <c r="M16" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N16" s="11" t="e">
+      <c r="N16" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3728,7 +3762,7 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4">
         <v>2080</v>
@@ -3773,11 +3807,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="11" t="e">
+      <c r="M17" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N17" s="11" t="e">
+      <c r="N17" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3821,7 +3855,7 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="4">
         <v>2085</v>
@@ -3866,11 +3900,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M18" s="11" t="e">
+      <c r="M18" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N18" s="11" t="e">
+      <c r="N18" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3914,7 +3948,7 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4">
         <v>2090</v>
@@ -3959,11 +3993,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="M19" s="11" t="e">
+      <c r="M19" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N19" s="11" t="e">
+      <c r="N19" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -4007,7 +4041,7 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4">
         <v>2095</v>
@@ -4052,11 +4086,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="M20" s="11" t="e">
+      <c r="M20" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N20" s="11" t="e">
+      <c r="N20" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -4100,7 +4134,7 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4">
         <v>2100</v>
@@ -4145,11 +4179,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="M21" s="11" t="e">
+      <c r="M21" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="N21" s="11" t="e">
+      <c r="N21" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
@@ -4193,14 +4227,14 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -4212,29 +4246,29 @@
       <c r="H22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
@@ -4242,7 +4276,7 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4254,8 +4288,8 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -4269,8 +4303,8 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -4278,7 +4312,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="4">
         <v>2015</v>
@@ -4289,30 +4323,30 @@
         <v>#REF!</v>
       </c>
       <c r="E24" s="2" t="e">
-        <f ca="1">(F4-$E4)/$C4*100</f>
+        <f t="shared" ref="E24:E41" ca="1" si="7">(F4-$E4)/$C4*100</f>
         <v>#REF!</v>
       </c>
       <c r="F24" s="2" t="e">
-        <f ca="1">(H4-$G4)/$C4*100</f>
+        <f t="shared" ref="F24:F41" ca="1" si="8">(H4-$G4)/$C4*100</f>
         <v>#REF!</v>
       </c>
       <c r="G24" s="2" t="e">
-        <f ca="1">(J4-$I4)/$C4*100</f>
+        <f t="shared" ref="G24:G41" ca="1" si="9">(J4-$I4)/$C4*100</f>
         <v>#REF!</v>
       </c>
       <c r="H24" s="2" t="e">
-        <f ca="1">(L4-$K4)/$C4*100</f>
+        <f t="shared" ref="H24:H41" ca="1" si="10">(L4-$K4)/$C4*100</f>
         <v>#REF!</v>
       </c>
       <c r="I24" s="2" t="e">
-        <f ca="1">(N4-M4)/C4*100</f>
+        <f t="shared" ref="I24:I41" ca="1" si="11">(N4-M4)/C4*100</f>
         <v>#REF!</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -4326,8 +4360,8 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
@@ -4335,42 +4369,42 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="str">
-        <f t="shared" ref="B25:B41" si="7">B4+1 &amp; "-" &amp; B5</f>
+        <f>B4+1 &amp; "-" &amp; B5</f>
         <v>2016-2020</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="e">
-        <f t="shared" ref="D25:D41" ca="1" si="8">(D5/$C5-1)*100</f>
+        <f t="shared" ref="D25:D41" ca="1" si="12">(D5/$C5-1)*100</f>
         <v>#REF!</v>
       </c>
       <c r="E25" s="2" t="e">
-        <f t="shared" ref="E25:E41" ca="1" si="9">(F5-$E5)/$C5*100</f>
+        <f t="shared" ca="1" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="F25" s="2" t="e">
-        <f t="shared" ref="F25:F41" ca="1" si="10">(H5-$G5)/$C5*100</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="G25" s="2" t="e">
-        <f t="shared" ref="G25:G41" ca="1" si="11">(J5-$I5)/$C5*100</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="H25" s="2" t="e">
-        <f t="shared" ref="H25:H41" ca="1" si="12">(L5-$K5)/$C5*100</f>
+        <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="I25" s="2" t="e">
-        <f t="shared" ref="I25:I41" ca="1" si="13">(N5-M5)/C5*100</f>
+        <f t="shared" ca="1" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -4384,8 +4418,8 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
@@ -4393,42 +4427,42 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B26:B41" si="13">B5+1 &amp; "-" &amp; B6</f>
         <v>2021-2025</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F26" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E26" s="2" t="e">
+      <c r="G26" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F26" s="2" t="e">
+      <c r="H26" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G26" s="2" t="e">
+      <c r="I26" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -4442,8 +4476,8 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -4451,42 +4485,42 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2026-2030</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E27" s="2" t="e">
+      <c r="G27" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F27" s="2" t="e">
+      <c r="H27" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="2" t="e">
+      <c r="I27" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I27" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -4500,8 +4534,8 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
@@ -4509,42 +4543,42 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2031-2035</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E28" s="2" t="e">
+      <c r="G28" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="2" t="e">
+      <c r="H28" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="2" t="e">
+      <c r="I28" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -4558,8 +4592,8 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
@@ -4567,42 +4601,42 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2036-2040</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F29" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E29" s="2" t="e">
+      <c r="G29" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F29" s="2" t="e">
+      <c r="H29" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="2" t="e">
+      <c r="I29" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -4616,8 +4650,8 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
@@ -4625,42 +4659,42 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2041-2045</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E30" s="2" t="e">
+      <c r="G30" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F30" s="2" t="e">
+      <c r="H30" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="2" t="e">
+      <c r="I30" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I30" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -4674,8 +4708,8 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
@@ -4683,42 +4717,42 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2046-2050</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F31" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E31" s="2" t="e">
+      <c r="G31" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F31" s="2" t="e">
+      <c r="H31" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="2" t="e">
+      <c r="I31" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -4732,8 +4766,8 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
@@ -4741,42 +4775,42 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2051-2055</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F32" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E32" s="2" t="e">
+      <c r="G32" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F32" s="2" t="e">
+      <c r="H32" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G32" s="2" t="e">
+      <c r="I32" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I32" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -4790,8 +4824,8 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -4799,42 +4833,42 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2056-2060</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E33" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F33" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E33" s="2" t="e">
+      <c r="G33" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F33" s="2" t="e">
+      <c r="H33" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G33" s="2" t="e">
+      <c r="I33" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I33" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -4848,8 +4882,8 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
@@ -4857,42 +4891,42 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2061-2065</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E34" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F34" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E34" s="2" t="e">
+      <c r="G34" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F34" s="2" t="e">
+      <c r="H34" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G34" s="2" t="e">
+      <c r="I34" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H34" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I34" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -4906,8 +4940,8 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
@@ -4915,42 +4949,42 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2066-2070</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E35" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F35" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E35" s="2" t="e">
+      <c r="G35" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F35" s="2" t="e">
+      <c r="H35" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G35" s="2" t="e">
+      <c r="I35" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I35" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -4964,8 +4998,8 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
@@ -4973,42 +5007,42 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2071-2075</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E36" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F36" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E36" s="2" t="e">
+      <c r="G36" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F36" s="2" t="e">
+      <c r="H36" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G36" s="2" t="e">
+      <c r="I36" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I36" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -5022,8 +5056,8 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
@@ -5031,42 +5065,42 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2076-2080</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E37" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F37" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E37" s="2" t="e">
+      <c r="G37" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F37" s="2" t="e">
+      <c r="H37" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G37" s="2" t="e">
+      <c r="I37" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I37" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -5080,8 +5114,8 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
@@ -5089,42 +5123,42 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2081-2085</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E38" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F38" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E38" s="2" t="e">
+      <c r="G38" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F38" s="2" t="e">
+      <c r="H38" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G38" s="2" t="e">
+      <c r="I38" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H38" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I38" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -5138,8 +5172,8 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
@@ -5147,42 +5181,42 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2086-2090</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F39" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E39" s="2" t="e">
+      <c r="G39" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F39" s="2" t="e">
+      <c r="H39" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G39" s="2" t="e">
+      <c r="I39" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H39" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I39" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -5196,8 +5230,8 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
@@ -5205,42 +5239,42 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2091-2095</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E40" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F40" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E40" s="2" t="e">
+      <c r="G40" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F40" s="2" t="e">
+      <c r="H40" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="2" t="e">
+      <c r="I40" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H40" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I40" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -5254,8 +5288,8 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
@@ -5263,42 +5297,42 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2096-2100</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E41" s="2" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F41" s="2" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E41" s="2" t="e">
+      <c r="G41" s="2" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F41" s="2" t="e">
+      <c r="H41" s="2" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G41" s="2" t="e">
+      <c r="I41" s="2" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H41" s="2" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I41" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -5312,8 +5346,8 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
@@ -5321,7 +5355,7 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5337,20 +5371,20 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
@@ -5358,7 +5392,7 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5374,20 +5408,20 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="5"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-      <c r="AC43" s="7"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
@@ -5395,7 +5429,7 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5411,20 +5445,20 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
@@ -5432,7 +5466,7 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5448,20 +5482,20 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
@@ -5469,7 +5503,7 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5485,20 +5519,20 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="5"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
@@ -5506,7 +5540,7 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5522,20 +5556,20 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="5"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
@@ -5543,7 +5577,7 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5559,20 +5593,20 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="5"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
@@ -5580,7 +5614,7 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5596,20 +5630,20 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="5"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="7"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
@@ -5617,7 +5651,7 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5633,20 +5667,20 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="5"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
@@ -5654,7 +5688,7 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5670,20 +5704,20 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="5"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
@@ -5691,7 +5725,7 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5706,20 +5740,20 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="5"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
@@ -5727,7 +5761,7 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5743,20 +5777,20 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="5"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
@@ -5764,7 +5798,7 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5780,20 +5814,20 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="5"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
@@ -5801,7 +5835,7 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5817,20 +5851,20 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
@@ -5838,7 +5872,7 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5854,20 +5888,20 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="5"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
@@ -5875,7 +5909,7 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5891,20 +5925,20 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="5"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
@@ -5912,7 +5946,7 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5928,20 +5962,20 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="5"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
@@ -5949,7 +5983,7 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5965,20 +5999,20 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="5"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
@@ -5987,6 +6021,7 @@
       <c r="AI59" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
